--- a/prodinfo/mea/sa/output/res20260210.xlsx
+++ b/prodinfo/mea/sa/output/res20260210.xlsx
@@ -427,7 +427,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-02-10 05:00:34</v>
+        <v>2026-02-10 05:30:16</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
@@ -450,7 +450,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-02-10 05:00:38</v>
+        <v>2026-02-10 05:30:22</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-02-10 05:00:42</v>
+        <v>2026-02-10 05:30:28</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-02-10 05:00:47</v>
+        <v>2026-02-10 05:30:30</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-02-10 05:01:03</v>
+        <v>2026-02-10 05:30:35</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
@@ -542,7 +542,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-02-10 05:01:07</v>
+        <v>2026-02-10 05:30:39</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-02-10 05:01:14</v>
+        <v>2026-02-10 05:30:42</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-02-10 05:01:20</v>
+        <v>2026-02-10 05:30:47</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-02-10 05:01:27</v>
+        <v>2026-02-10 05:30:54</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-02-10 05:01:34</v>
+        <v>2026-02-10 05:30:58</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-02-10 05:01:38</v>
+        <v>2026-02-10 05:31:04</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-02-10 05:01:51</v>
+        <v>2026-02-10 05:31:06</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-02-10 05:01:55</v>
+        <v>2026-02-10 05:31:09</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-02-10 05:03:12</v>
+        <v>2026-02-10 05:31:12</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-02-10 05:04:32</v>
+        <v>2026-02-10 05:31:16</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-02-10 05:04:56</v>
+        <v>2026-02-10 05:31:19</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-02-10 05:05:31</v>
+        <v>2026-02-10 05:31:22</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-02-10 05:05:41</v>
+        <v>2026-02-10 05:31:24</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-02-10 05:06:23</v>
+        <v>2026-02-10 05:31:28</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-02-10 05:06:30</v>
+        <v>2026-02-10 05:31:33</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-02-10 05:06:37</v>
+        <v>2026-02-10 05:31:38</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
@@ -910,7 +910,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-02-10 05:06:43</v>
+        <v>2026-02-10 05:31:42</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-02-10 05:06:48</v>
+        <v>2026-02-10 05:31:46</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-02-10 05:06:54</v>
+        <v>2026-02-10 05:31:52</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
@@ -979,7 +979,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-02-10 05:07:12</v>
+        <v>2026-02-10 05:31:54</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-02-10 05:07:17</v>
+        <v>2026-02-10 05:32:00</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-02-10 05:07:22</v>
+        <v>2026-02-10 05:32:06</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-02-10 05:07:26</v>
+        <v>2026-02-10 05:32:09</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-02-10 05:07:37</v>
+        <v>2026-02-10 05:32:14</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-02-10 05:07:45</v>
+        <v>2026-02-10 05:32:17</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-02-10 05:07:52</v>
+        <v>2026-02-10 05:32:21</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-02-10 05:07:56</v>
+        <v>2026-02-10 05:32:25</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-02-10 05:08:03</v>
+        <v>2026-02-10 05:32:30</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-02-10 05:08:15</v>
+        <v>2026-02-10 05:32:36</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-02-10 05:08:21</v>
+        <v>2026-02-10 05:32:39</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-02-10 05:08:36</v>
+        <v>2026-02-10 05:32:44</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-02-10 05:08:50</v>
+        <v>2026-02-10 05:32:47</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
@@ -1278,7 +1278,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-02-10 05:08:55</v>
+        <v>2026-02-10 05:32:50</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-02-10 05:09:01</v>
+        <v>2026-02-10 05:32:54</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-02-10 05:09:06</v>
+        <v>2026-02-10 05:32:58</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-02-10 05:09:15</v>
+        <v>2026-02-10 05:33:02</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-02-10 05:09:19</v>
+        <v>2026-02-10 05:33:08</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-02-10 05:09:26</v>
+        <v>2026-02-10 05:33:10</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
@@ -1416,7 +1416,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-02-10 05:09:30</v>
+        <v>2026-02-10 05:33:16</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-02-10 05:09:35</v>
+        <v>2026-02-10 05:33:19</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
@@ -1462,7 +1462,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-02-10 05:09:40</v>
+        <v>2026-02-10 05:33:22</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-02-10 05:09:46</v>
+        <v>2026-02-10 05:33:25</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-02-10 05:09:53</v>
+        <v>2026-02-10 05:33:29</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
@@ -1531,7 +1531,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-02-10 05:10:00</v>
+        <v>2026-02-10 05:33:32</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2026-02-10 05:10:15</v>
+        <v>2026-02-10 05:33:46</v>
       </c>
       <c r="B51" t="str">
         <v>沙特</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2026-02-10 05:10:19</v>
+        <v>2026-02-10 05:33:50</v>
       </c>
       <c r="B52" t="str">
         <v>沙特</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2026-02-10 05:10:26</v>
+        <v>2026-02-10 05:33:56</v>
       </c>
       <c r="B53" t="str">
         <v>沙特</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-02-10 05:10:33</v>
+        <v>2026-02-10 05:33:59</v>
       </c>
       <c r="B54" t="str">
         <v>沙特</v>
@@ -1646,7 +1646,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2026-02-10 05:10:38</v>
+        <v>2026-02-10 05:34:02</v>
       </c>
       <c r="B55" t="str">
         <v>沙特</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2026-02-10 05:11:01</v>
+        <v>2026-02-10 05:34:08</v>
       </c>
       <c r="B56" t="str">
         <v>沙特</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2026-02-10 05:12:17</v>
+        <v>2026-02-10 05:34:14</v>
       </c>
       <c r="B57" t="str">
         <v>沙特</v>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2026-02-10 05:12:24</v>
+        <v>2026-02-10 05:34:17</v>
       </c>
       <c r="B58" t="str">
         <v>沙特</v>
@@ -1738,7 +1738,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2026-02-10 05:12:27</v>
+        <v>2026-02-10 05:34:21</v>
       </c>
       <c r="B59" t="str">
         <v>沙特</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2026-02-10 05:12:34</v>
+        <v>2026-02-10 05:34:26</v>
       </c>
       <c r="B60" t="str">
         <v>沙特</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2026-02-10 05:12:37</v>
+        <v>2026-02-10 05:34:31</v>
       </c>
       <c r="B61" t="str">
         <v>沙特</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2026-02-10 05:12:41</v>
+        <v>2026-02-10 05:34:35</v>
       </c>
       <c r="B62" t="str">
         <v>沙特</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2026-02-10 05:12:46</v>
+        <v>2026-02-10 05:34:37</v>
       </c>
       <c r="B63" t="str">
         <v>沙特</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2026-02-10 05:12:52</v>
+        <v>2026-02-10 05:34:41</v>
       </c>
       <c r="B64" t="str">
         <v>沙特</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2026-02-10 05:12:57</v>
+        <v>2026-02-10 05:34:44</v>
       </c>
       <c r="B65" t="str">
         <v>沙特</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2026-02-10 05:13:07</v>
+        <v>2026-02-10 05:34:46</v>
       </c>
       <c r="B66" t="str">
         <v>沙特</v>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2026-02-10 05:13:24</v>
+        <v>2026-02-10 05:34:50</v>
       </c>
       <c r="B67" t="str">
         <v>沙特</v>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2026-02-10 05:13:42</v>
+        <v>2026-02-10 05:34:56</v>
       </c>
       <c r="B68" t="str">
         <v>沙特</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2026-02-10 05:13:48</v>
+        <v>2026-02-10 05:34:59</v>
       </c>
       <c r="B69" t="str">
         <v>沙特</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2026-02-10 05:13:52</v>
+        <v>2026-02-10 05:35:05</v>
       </c>
       <c r="B70" t="str">
         <v>沙特</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2026-02-10 05:13:58</v>
+        <v>2026-02-10 05:35:09</v>
       </c>
       <c r="B71" t="str">
         <v>沙特</v>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2026-02-10 05:14:03</v>
+        <v>2026-02-10 05:35:12</v>
       </c>
       <c r="B72" t="str">
         <v>沙特</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2026-02-10 05:14:08</v>
+        <v>2026-02-10 05:35:15</v>
       </c>
       <c r="B73" t="str">
         <v>沙特</v>
@@ -2083,7 +2083,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2026-02-10 05:14:13</v>
+        <v>2026-02-10 05:35:19</v>
       </c>
       <c r="B74" t="str">
         <v>沙特</v>
@@ -2106,7 +2106,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2026-02-10 05:14:31</v>
+        <v>2026-02-10 05:35:22</v>
       </c>
       <c r="B75" t="str">
         <v>沙特</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2026-02-10 05:14:37</v>
+        <v>2026-02-10 05:35:27</v>
       </c>
       <c r="B76" t="str">
         <v>沙特</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2026-02-10 05:14:44</v>
+        <v>2026-02-10 05:35:30</v>
       </c>
       <c r="B77" t="str">
         <v>沙特</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>2026-02-10 05:14:49</v>
+        <v>2026-02-10 05:35:33</v>
       </c>
       <c r="B78" t="str">
         <v>沙特</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>2026-02-10 05:14:53</v>
+        <v>2026-02-10 05:35:37</v>
       </c>
       <c r="B79" t="str">
         <v>沙特</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>2026-02-10 05:14:58</v>
+        <v>2026-02-10 05:35:40</v>
       </c>
       <c r="B80" t="str">
         <v>沙特</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>2026-02-10 05:15:03</v>
+        <v>2026-02-10 05:35:45</v>
       </c>
       <c r="B81" t="str">
         <v>沙特</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>2026-02-10 05:15:06</v>
+        <v>2026-02-10 05:35:49</v>
       </c>
       <c r="B82" t="str">
         <v>沙特</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>2026-02-10 05:15:23</v>
+        <v>2026-02-10 05:35:56</v>
       </c>
       <c r="B83" t="str">
         <v>沙特</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>2026-02-10 05:15:28</v>
+        <v>2026-02-10 05:35:58</v>
       </c>
       <c r="B84" t="str">
         <v>沙特</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>2026-02-10 05:15:34</v>
+        <v>2026-02-10 05:36:03</v>
       </c>
       <c r="B85" t="str">
         <v>沙特</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>2026-02-10 05:15:37</v>
+        <v>2026-02-10 05:36:06</v>
       </c>
       <c r="B86" t="str">
         <v>沙特</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>2026-02-10 05:15:43</v>
+        <v>2026-02-10 05:36:11</v>
       </c>
       <c r="B87" t="str">
         <v>沙特</v>
@@ -2405,7 +2405,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>2026-02-10 05:15:57</v>
+        <v>2026-02-10 05:36:15</v>
       </c>
       <c r="B88" t="str">
         <v>沙特</v>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>2026-02-10 05:16:02</v>
+        <v>2026-02-10 05:36:18</v>
       </c>
       <c r="B89" t="str">
         <v>沙特</v>
@@ -2451,7 +2451,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>2026-02-10 05:16:09</v>
+        <v>2026-02-10 05:36:22</v>
       </c>
       <c r="B90" t="str">
         <v>沙特</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>2026-02-10 05:16:16</v>
+        <v>2026-02-10 05:36:26</v>
       </c>
       <c r="B91" t="str">
         <v>沙特</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>2026-02-10 05:16:22</v>
+        <v>2026-02-10 05:36:28</v>
       </c>
       <c r="B92" t="str">
         <v>沙特</v>

--- a/prodinfo/mea/sa/output/res20260210.xlsx
+++ b/prodinfo/mea/sa/output/res20260210.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,16 +427,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2026-02-10 05:30:16</v>
+        <v>2026-02-10 06:00:08</v>
       </c>
       <c r="B2" t="str">
         <v>沙特</v>
       </c>
       <c r="C2" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D2" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666740.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-1-tb-cosmic-orange/p/100460359</v>
       </c>
       <c r="E2" t="str">
         <v>APPLE iPhone 17 Pro 12+1024</v>
@@ -450,16 +450,16 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2026-02-10 05:30:22</v>
+        <v>2026-02-10 06:00:12</v>
       </c>
       <c r="B3" t="str">
         <v>沙特</v>
       </c>
       <c r="C3" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D3" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666717.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-256gb-deep-blue/p/100460369</v>
       </c>
       <c r="E3" t="str">
         <v>APPLE iPhone 17 Pro 12+256</v>
@@ -473,16 +473,16 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2026-02-10 05:30:28</v>
+        <v>2026-02-10 06:00:18</v>
       </c>
       <c r="B4" t="str">
         <v>沙特</v>
       </c>
       <c r="C4" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D4" t="str">
-        <v>https://www.jarir.com/sa-en/apple-iphone-17-pro-smartphones-666727.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/apple-iphone-17-pro-5g-6-3-inch-512gb-deep-blue/p/100460646</v>
       </c>
       <c r="E4" t="str">
         <v>APPLE iPhone 17 Pro 12+512</v>
@@ -496,2031 +496,1686 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>2026-02-10 05:30:30</v>
+        <v>2026-02-10 06:00:24</v>
       </c>
       <c r="B5" t="str">
         <v>沙特</v>
       </c>
       <c r="C5" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D5" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magic8-pro-smartphones-671189.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-5g-256-gb-desert-gold/p/100415761</v>
       </c>
       <c r="E5" t="str">
-        <v>HONOR Magic 8 Pro 12+512</v>
+        <v>HONOR 400 12+256</v>
       </c>
       <c r="F5" t="str">
         <v/>
       </c>
       <c r="G5" t="str">
-        <v>4199</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>2026-02-10 05:30:35</v>
+        <v>2026-02-10 06:00:29</v>
       </c>
       <c r="B6" t="str">
         <v>沙特</v>
       </c>
       <c r="C6" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D6" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magic-v3-smartphones-663456.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-400-pro-5g-512-gb-midnight-black/p/100415747</v>
       </c>
       <c r="E6" t="str">
-        <v>HONOR Magic V5 16+512</v>
+        <v>HONOR 400 Pro 12+512</v>
       </c>
       <c r="F6" t="str">
         <v/>
       </c>
       <c r="G6" t="str">
-        <v>6499</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>2026-02-10 05:30:39</v>
+        <v>2026-02-10 06:00:34</v>
       </c>
       <c r="B7" t="str">
         <v>沙特</v>
       </c>
       <c r="C7" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D7" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-mate-xt-smartphones-652971.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-magic-8-pro-5g-512-gb-sunrise-gold/p/100487672</v>
       </c>
       <c r="E7" t="str">
-        <v>HUAWEI Mate XT 16+1024</v>
+        <v>HONOR Magic 8 Pro 12+512</v>
       </c>
       <c r="F7" t="str">
         <v/>
       </c>
       <c r="G7" t="str">
-        <v>9999</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>2026-02-10 05:30:42</v>
+        <v>2026-02-10 06:00:39</v>
       </c>
       <c r="B8" t="str">
         <v>沙特</v>
       </c>
       <c r="C8" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D8" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-smartphones-664946.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9c-5g-256gb-titanium-black/p/100389394</v>
       </c>
       <c r="E8" t="str">
-        <v>HUAWEI Pura 80 12+256</v>
+        <v>HONOR X9C 12+256</v>
       </c>
       <c r="F8" t="str">
         <v/>
       </c>
       <c r="G8" t="str">
-        <v>2299</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>2026-02-10 05:30:47</v>
+        <v>2026-02-10 06:00:44</v>
       </c>
       <c r="B9" t="str">
         <v>沙特</v>
       </c>
       <c r="C9" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D9" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662079.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/honor-x9d-5g-256-gb-reddish-brown/p/100477711</v>
       </c>
       <c r="E9" t="str">
-        <v>HUAWEI Pura 80 Pro 12+512</v>
+        <v>HONOR X9D 12+256</v>
       </c>
       <c r="F9" t="str">
         <v/>
       </c>
       <c r="G9" t="str">
-        <v>2899</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>2026-02-10 05:30:54</v>
+        <v>2026-02-10 06:00:48</v>
       </c>
       <c r="B10" t="str">
         <v>沙特</v>
       </c>
       <c r="C10" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D10" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-pura-80-pro-smartphones-662090.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-4g-lte-256-gb-black/p/100392611</v>
       </c>
       <c r="E10" t="str">
-        <v>HUAWEI Pura 80 Ultra 16+512</v>
+        <v>HUAWEI nova 13  12+256</v>
       </c>
       <c r="F10" t="str">
         <v/>
       </c>
       <c r="G10" t="str">
-        <v>4099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>2026-02-10 05:30:58</v>
+        <v>2026-02-10 06:00:51</v>
       </c>
       <c r="B11" t="str">
         <v>沙特</v>
       </c>
       <c r="C11" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D11" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629684.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-13-pro-4g-lte-512-gb-white/p/100392622</v>
       </c>
       <c r="E11" t="str">
-        <v>SAMSUNG S24 Ultra 12+256</v>
+        <v>HUAWEI nova 13 Pro 12+512</v>
       </c>
       <c r="F11" t="str">
         <v/>
       </c>
       <c r="G11" t="str">
-        <v>3199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>2026-02-10 05:31:04</v>
+        <v>2026-02-10 06:00:57</v>
       </c>
       <c r="B12" t="str">
         <v>沙特</v>
       </c>
       <c r="C12" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D12" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s24-ultra-smartphones-629693.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-4g-lte-256-gb-white/p/100477716</v>
       </c>
       <c r="E12" t="str">
-        <v>SAMSUNG S24 Ultra 12+512</v>
+        <v>HUAWEI nova 14 12+256</v>
       </c>
       <c r="F12" t="str">
         <v/>
       </c>
       <c r="G12" t="str">
-        <v>3499</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>2026-02-10 05:31:06</v>
+        <v>2026-02-10 06:01:03</v>
       </c>
       <c r="B13" t="str">
         <v>沙特</v>
       </c>
       <c r="C13" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D13" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650984.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-nova-14-pro-4g-lte-512-gb-black/p/100477715</v>
       </c>
       <c r="E13" t="str">
-        <v>SAMSUNG S25 12+128</v>
+        <v>HUAWEI nova 14 Pro 12+512</v>
       </c>
       <c r="F13" t="str">
         <v/>
       </c>
       <c r="G13" t="str">
-        <v>0</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>2026-02-10 05:31:09</v>
+        <v>2026-02-10 06:01:07</v>
       </c>
       <c r="B14" t="str">
         <v>沙特</v>
       </c>
       <c r="C14" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D14" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650999.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-4g-lte-256-gb-black/p/100466488</v>
       </c>
       <c r="E14" t="str">
-        <v>SAMSUNG S25 12+256</v>
+        <v>HUAWEI Pura 80 12+256</v>
       </c>
       <c r="F14" t="str">
         <v/>
       </c>
       <c r="G14" t="str">
-        <v>2599</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>2026-02-10 05:31:12</v>
+        <v>2026-02-10 06:01:12</v>
       </c>
       <c r="B15" t="str">
         <v>沙特</v>
       </c>
       <c r="C15" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D15" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650986.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-pro-4g-lte-512-gb-glazed-black/p/100455032</v>
       </c>
       <c r="E15" t="str">
-        <v>SAMSUNG S25 Plus 12+256</v>
+        <v>HUAWEI Pura 80 Pro 12+512</v>
       </c>
       <c r="F15" t="str">
         <v/>
       </c>
       <c r="G15" t="str">
-        <v>3299</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>2026-02-10 05:31:16</v>
+        <v>2026-02-10 06:01:14</v>
       </c>
       <c r="B16" t="str">
         <v>沙特</v>
       </c>
       <c r="C16" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D16" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-smartphones-650952.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/huawei-pura-80-ultra-4g-lte-512-gb-prestige-gold/p/100455030</v>
       </c>
       <c r="E16" t="str">
-        <v>SAMSUNG S25 Plus 12+512</v>
+        <v>HUAWEI Pura 80 Ultra 12+512</v>
       </c>
       <c r="F16" t="str">
         <v/>
       </c>
       <c r="G16" t="str">
-        <v>3999</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>2026-02-10 05:31:19</v>
+        <v>2026-02-10 06:01:20</v>
       </c>
       <c r="B17" t="str">
         <v>沙特</v>
       </c>
       <c r="C17" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D17" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650943.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno13-5g-512-gb-luminous-blue/p/100391948</v>
       </c>
       <c r="E17" t="str">
-        <v>SAMSUNG S25 Ultra 12+256</v>
+        <v>OPPO Reno 13 12+512</v>
       </c>
       <c r="F17" t="str">
         <v/>
       </c>
       <c r="G17" t="str">
-        <v>3999</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>2026-02-10 05:31:22</v>
+        <v>2026-02-10 06:01:27</v>
       </c>
       <c r="B18" t="str">
         <v>沙特</v>
       </c>
       <c r="C18" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D18" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-s25-ultra-smartphones-650937.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/oppo-reno-14f-5g-256-gb-luminous-green/p/100461328</v>
       </c>
       <c r="E18" t="str">
-        <v>SAMSUNG S25 Ultra 12+512</v>
+        <v>OPPO Reno 14F 12+256</v>
       </c>
       <c r="F18" t="str">
         <v/>
       </c>
       <c r="G18" t="str">
-        <v>4425</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2026-02-10 05:31:24</v>
+        <v>2026-02-10 06:01:30</v>
       </c>
       <c r="B19" t="str">
         <v>沙特</v>
       </c>
       <c r="C19" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D19" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661880.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-a56-5g-256-gb-awesome-graphite/p/100396751</v>
       </c>
       <c r="E19" t="str">
-        <v>SAMSUNG Z Fold 7 12+256</v>
+        <v>SAMSUNG A56 8+256</v>
       </c>
       <c r="F19" t="str">
         <v/>
       </c>
       <c r="G19" t="str">
-        <v>6699</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2026-02-10 05:31:28</v>
+        <v>2026-02-10 06:01:35</v>
       </c>
       <c r="B20" t="str">
         <v>沙特</v>
       </c>
       <c r="C20" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D20" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-z-fold7-smartphones-661870.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-256gb-onyx-black/p/100355371</v>
       </c>
       <c r="E20" t="str">
-        <v>SAMSUNG Z Fold 7 12+512</v>
+        <v>SAMSUNG S24 Plus 12+256</v>
       </c>
       <c r="F20" t="str">
         <v/>
       </c>
       <c r="G20" t="str">
-        <v>7199</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2026-02-10 05:31:33</v>
+        <v>2026-02-10 06:01:39</v>
       </c>
       <c r="B21" t="str">
         <v>沙特</v>
       </c>
       <c r="C21" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D21" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-15-smartphones-654044.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-plus-5g-6-7-inch-512gb-amber-yellow/p/100355358</v>
       </c>
       <c r="E21" t="str">
-        <v>XIAOMI Xiaomi 15 12+512</v>
+        <v>SAMSUNG S24 Plus 12+512</v>
       </c>
       <c r="F21" t="str">
         <v/>
       </c>
       <c r="G21" t="str">
-        <v>2799</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2026-02-10 05:31:38</v>
+        <v>2026-02-10 06:01:41</v>
       </c>
       <c r="B22" t="str">
         <v>沙特</v>
       </c>
       <c r="C22" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D22" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-15-ultra-smartphones-654014.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-1tb-titanium-green/p/100363754</v>
       </c>
       <c r="E22" t="str">
-        <v>XIAOMI Xiaomi 15 Ultra 16+512</v>
+        <v>SAMSUNG S24 Ultra 12+1024</v>
       </c>
       <c r="F22" t="str">
         <v/>
       </c>
       <c r="G22" t="str">
-        <v>4099</v>
+        <v>6899</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2026-02-10 05:31:42</v>
+        <v>2026-02-10 06:01:44</v>
       </c>
       <c r="B23" t="str">
         <v>沙特</v>
       </c>
       <c r="C23" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D23" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666653.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-256gb-titanium-gray/p/100355419</v>
       </c>
       <c r="E23" t="str">
-        <v>APPLE Apple Watch SE 3 Starlight 40mm</v>
+        <v>SAMSUNG S24 Ultra 12+256</v>
       </c>
       <c r="F23" t="str">
         <v/>
       </c>
       <c r="G23" t="str">
-        <v>1319</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2026-02-10 05:31:46</v>
+        <v>2026-02-10 06:01:47</v>
       </c>
       <c r="B24" t="str">
         <v>沙特</v>
       </c>
       <c r="C24" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D24" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666630.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s24-ultra-5g-6-8-inch-512gb-titanium-violet/p/100355425</v>
       </c>
       <c r="E24" t="str">
-        <v>APPLE Apple Watch SE 3 Starlight 44mm</v>
+        <v>SAMSUNG S24 Ultra 12+512</v>
       </c>
       <c r="F24" t="str">
         <v/>
       </c>
       <c r="G24" t="str">
-        <v>1229</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2026-02-10 05:31:52</v>
+        <v>2026-02-10 06:01:51</v>
       </c>
       <c r="B25" t="str">
         <v>沙特</v>
       </c>
       <c r="C25" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D25" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-40-smartwatch-666622.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-128-gb-navy/p/100392590</v>
       </c>
       <c r="E25" t="str">
-        <v>APPLE Apple Watch SE 3 Midnight 40mm</v>
+        <v>SAMSUNG S25 12+128</v>
       </c>
       <c r="F25" t="str">
         <v/>
       </c>
       <c r="G25" t="str">
-        <v>1099</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2026-02-10 05:31:54</v>
+        <v>2026-02-10 06:01:56</v>
       </c>
       <c r="B26" t="str">
         <v>沙特</v>
       </c>
       <c r="C26" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D26" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-se-3-44-smartwatch-666639.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-5g-256-gb-mint/p/100392594</v>
       </c>
       <c r="E26" t="str">
-        <v>APPLE Apple Watch SE 3 Midnight 44mm</v>
+        <v>SAMSUNG S25 12+256</v>
       </c>
       <c r="F26" t="str">
         <v/>
       </c>
       <c r="G26" t="str">
-        <v>1229</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2026-02-10 05:32:00</v>
+        <v>2026-02-10 06:02:02</v>
       </c>
       <c r="B27" t="str">
         <v>沙特</v>
       </c>
       <c r="C27" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D27" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-series-11-46mm-smartwatch-666701.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-fe-5g-256-gb-navy/p/100474886</v>
       </c>
       <c r="E27" t="str">
-        <v>APPLE Apple Watch Series 11 Purple 46mm</v>
+        <v>SAMSUNG S25 FE 8+256</v>
       </c>
       <c r="F27" t="str">
         <v/>
       </c>
       <c r="G27" t="str">
-        <v>2329</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2026-02-10 05:32:06</v>
+        <v>2026-02-10 06:02:05</v>
       </c>
       <c r="B28" t="str">
         <v>沙特</v>
       </c>
       <c r="C28" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D28" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-series-11-42-smartwatch-666631.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-256-gb-mint/p/100392595</v>
       </c>
       <c r="E28" t="str">
-        <v>APPLE Apple Watch Series 11 Black 42mm</v>
+        <v>SAMSUNG S25 Plus 12+256</v>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>2199</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2026-02-10 05:32:09</v>
+        <v>2026-02-10 06:02:08</v>
       </c>
       <c r="B29" t="str">
         <v>沙特</v>
       </c>
       <c r="C29" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D29" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-series-11-46-smartwatch-666641.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-plus-5g-512-gb-navy/p/100392605</v>
       </c>
       <c r="E29" t="str">
-        <v>APPLE Apple Watch Series 11 Black 46mm</v>
+        <v>SAMSUNG S25 Plus 12+512</v>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>1929</v>
+        <v>3952</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2026-02-10 05:32:14</v>
+        <v>2026-02-10 06:02:13</v>
       </c>
       <c r="B30" t="str">
         <v>沙特</v>
       </c>
       <c r="C30" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D30" t="str">
-        <v>https://www.jarir.com/sa-en/apple-watch-ultra-3-smartwatch-666649.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-256-gb-titanium-black/p/100392607</v>
       </c>
       <c r="E30" t="str">
-        <v>APPLE Apple Watch Ultra 3 Black 49mm</v>
+        <v>SAMSUNG S25 Ultra 12+256</v>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>3599</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2026-02-10 05:32:17</v>
+        <v>2026-02-10 06:02:16</v>
       </c>
       <c r="B31" t="str">
         <v>沙特</v>
       </c>
       <c r="C31" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D31" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-5-42mm-smartwatch-657335.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-s25-ultra-5g-512-gb-titanium-black/p/100392613</v>
       </c>
       <c r="E31" t="str">
-        <v>HUAWEI Huawei Watch 5 Beige 42mm</v>
+        <v>SAMSUNG S25 Ultra 12+512</v>
       </c>
       <c r="F31" t="str">
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>1299</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2026-02-10 05:32:21</v>
+        <v>2026-02-10 06:02:22</v>
       </c>
       <c r="B32" t="str">
         <v>沙特</v>
       </c>
       <c r="C32" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D32" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-5-46mm-smartwatch-657337.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-256-gb-blue-shadow/p/100455996</v>
       </c>
       <c r="E32" t="str">
-        <v>HUAWEI Huawei Watch 5 Black 46mm</v>
+        <v>SAMSUNG Z Fold 7 12+256</v>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>1299</v>
+        <v>6699</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2026-02-10 05:32:25</v>
+        <v>2026-02-10 06:02:25</v>
       </c>
       <c r="B33" t="str">
         <v>沙特</v>
       </c>
       <c r="C33" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D33" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-d2-smartwatch-647407.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/samsung-galaxy-z-fold-7-5g-512-gb-blue-shadow/p/100455994</v>
       </c>
       <c r="E33" t="str">
-        <v>HUAWEI Huawei Watch D2 Black</v>
+        <v>SAMSUNG Z Fold 7 12+512</v>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>1299</v>
+        <v>7199</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2026-02-10 05:32:30</v>
+        <v>2026-02-10 06:02:28</v>
       </c>
       <c r="B34" t="str">
         <v>沙特</v>
       </c>
       <c r="C34" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D34" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657289.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-5g-256-gb-black/p/100476401</v>
       </c>
       <c r="E34" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Black</v>
+        <v>XIAOMI 15T 12+256</v>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>429</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2026-02-10 05:32:36</v>
+        <v>2026-02-10 06:02:31</v>
       </c>
       <c r="B35" t="str">
         <v>沙特</v>
       </c>
       <c r="C35" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D35" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-smartwatch-657300.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15t-pro-5g-512-gb-gray/p/100476393</v>
       </c>
       <c r="E35" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Purple</v>
+        <v>XIAOMI 15T Pro 12+512</v>
       </c>
       <c r="F35" t="str">
         <v/>
       </c>
       <c r="G35" t="str">
-        <v>429</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>2026-02-10 05:32:39</v>
+        <v>2026-02-10 06:02:34</v>
       </c>
       <c r="B36" t="str">
         <v>沙特</v>
       </c>
       <c r="C36" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D36" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657302.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-5g-512-gb-white/p/100396373</v>
       </c>
       <c r="E36" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Pro Black</v>
+        <v>XIAOMI Xiaomi 15 12+512</v>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>699</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>2026-02-10 05:32:44</v>
+        <v>2026-02-10 06:02:39</v>
       </c>
       <c r="B37" t="str">
         <v>沙特</v>
       </c>
       <c r="C37" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D37" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-4-pro-smartwatch-657313.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/mobiles/smartphone/xiaomi-15-ultra-5g-512-gb-black/p/100396368</v>
       </c>
       <c r="E37" t="str">
-        <v>HUAWEI Huawei Watch Fit 4 Pro Blue</v>
+        <v>XIAOMI Xiaomi 15 Ultra 12+512</v>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>699</v>
+        <v>3999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>2026-02-10 05:32:47</v>
+        <v>2026-02-10 06:02:44</v>
       </c>
       <c r="B38" t="str">
         <v>沙特</v>
       </c>
       <c r="C38" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D38" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665667.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-13-inch-wi-fi-m5-space-black/p/100462899</v>
       </c>
       <c r="E38" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Black 41mm</v>
+        <v>APPLE iPad Pro M5 12+256，WiFi，13"</v>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>799</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2026-02-10 05:32:50</v>
+        <v>2026-02-10 06:02:48</v>
       </c>
       <c r="B39" t="str">
         <v>沙特</v>
       </c>
       <c r="C39" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D39" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665676.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-pro-2025-256-gb-12gb-11-inch-wi-fi-m5-space-black/p/100462894</v>
       </c>
       <c r="E39" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Black 46mm</v>
+        <v>APPLE iPad Pro M5 12+256，WiFi，11"</v>
       </c>
       <c r="F39" t="str">
         <v/>
       </c>
       <c r="G39" t="str">
-        <v>799</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2026-02-10 05:32:54</v>
+        <v>2026-02-10 06:02:54</v>
       </c>
       <c r="B40" t="str">
         <v>沙特</v>
       </c>
       <c r="C40" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D40" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665674.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-ultra-wi-fi-256-gb-platinum-silver/p/100385464</v>
       </c>
       <c r="E40" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Brown 41mm</v>
+        <v>SAMSUNG Galaxy Tab S10 Ultra 12+256，WiFi，14.6"</v>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v>799</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2026-02-10 05:32:58</v>
+        <v>2026-02-10 06:03:00</v>
       </c>
       <c r="B41" t="str">
         <v>沙特</v>
       </c>
       <c r="C41" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D41" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665681.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-256-gb-silver/p/100401433</v>
       </c>
       <c r="E41" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Green 46mm</v>
+        <v>SAMSUNG Galaxy Tab S10 FE+ 12+256，WiFi，13.1"</v>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>799</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2026-02-10 05:33:02</v>
+        <v>2026-02-10 06:03:07</v>
       </c>
       <c r="B42" t="str">
         <v>沙特</v>
       </c>
       <c r="C42" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D42" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-46-smartwatch-665677.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-plus-wi-fi-256-gb-moonstone-gray/p/100385459</v>
       </c>
       <c r="E42" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Grey 46mm</v>
+        <v>SAMSUNG Galaxy Tab S10+ 12+256，WiFi，12.4"</v>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>799</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2026-02-10 05:33:08</v>
+        <v>2026-02-10 06:03:11</v>
       </c>
       <c r="B43" t="str">
         <v>沙特</v>
       </c>
       <c r="C43" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D43" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665684.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-3-wi-fi-512-gb-13-3-inch-gray/p/100470651</v>
       </c>
       <c r="E43" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Pro Black 46mm</v>
+        <v>HONOR Magic Pad3 12+512 带键盘带笔，WiFi，13.3"</v>
       </c>
       <c r="F43" t="str">
         <v/>
       </c>
       <c r="G43" t="str">
-        <v>1199</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2026-02-10 05:33:10</v>
+        <v>2026-02-10 06:03:15</v>
       </c>
       <c r="B44" t="str">
         <v>沙特</v>
       </c>
       <c r="C44" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D44" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665689.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/honor-magic-pad-2-wi-fi-12-3-inch-oled-256gb-white-with-keyboard-pen/p/100382993</v>
       </c>
       <c r="E44" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Pro Brown 46mm</v>
+        <v>HONOR Magic Pad2 12+256 带键盘带笔，WiFi，12.3"</v>
       </c>
       <c r="F44" t="str">
         <v/>
       </c>
       <c r="G44" t="str">
-        <v>1199</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2026-02-10 05:33:16</v>
+        <v>2026-02-10 06:03:18</v>
       </c>
       <c r="B45" t="str">
         <v>沙特</v>
       </c>
       <c r="C45" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D45" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-pro-46-smartwatch-665688.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-256gb-space-grey/p/100396456</v>
       </c>
       <c r="E45" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Pro Titanium 46mm</v>
+        <v>APPLE iPad Air M3 8+256，WiFi，11"</v>
       </c>
       <c r="F45" t="str">
         <v/>
       </c>
       <c r="G45" t="str">
-        <v>1499</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2026-02-10 05:33:19</v>
+        <v>2026-02-10 06:03:21</v>
       </c>
       <c r="B46" t="str">
         <v>沙特</v>
       </c>
       <c r="C46" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D46" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665671.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-air-m3-gen-2025-wi-fi-11-inch-128gb-space-grey/p/100396462</v>
       </c>
       <c r="E46" t="str">
-        <v>HUAWEI Huawei Watch GT 6 Purple 41mm</v>
+        <v>APPLE iPad Air M3 8+128，WiFi，11"</v>
       </c>
       <c r="F46" t="str">
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>799</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2026-02-10 05:33:22</v>
+        <v>2026-02-10 06:03:24</v>
       </c>
       <c r="B47" t="str">
         <v>沙特</v>
       </c>
       <c r="C47" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D47" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-gt-6-41-smartwatch-665672.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-11th-gen-wi-fi-cellular-11-inch-128gb-silver/p/100396435</v>
       </c>
       <c r="E47" t="str">
-        <v>HUAWEI Huawei Watch GT 6 White 41mm</v>
+        <v>APPLE  iPad A16 6+128，LTE，11“</v>
       </c>
       <c r="F47" t="str">
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>799</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2026-02-10 05:33:25</v>
+        <v>2026-02-10 06:03:26</v>
       </c>
       <c r="B48" t="str">
         <v>沙特</v>
       </c>
       <c r="C48" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D48" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-ultimate-2-smartwatch-670486.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/android/samsung-galaxy-tab-s10-fe-plus-wifi-128-gb-gray/p/100401425</v>
       </c>
       <c r="E48" t="str">
-        <v>HUAWEI Huawei Watch Ultimate 2 Black</v>
+        <v>SAMSUNG Galaxy Tab S10 FE+ 8+128，WiFi，13.1"</v>
       </c>
       <c r="F48" t="str">
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>2999</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2026-02-10 05:33:29</v>
+        <v>2026-02-10 06:03:31</v>
       </c>
       <c r="B49" t="str">
         <v>沙特</v>
       </c>
       <c r="C49" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D49" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-active-smartwatch-642243.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-128gb-space-grey/p/100347381</v>
       </c>
       <c r="E49" t="str">
-        <v>REDMI Redmi Watch 5 Active Black</v>
+        <v>APPLE iPad mini 8+128，WiFi，8.3"</v>
       </c>
       <c r="F49" t="str">
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>119</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2026-02-10 05:33:32</v>
+        <v>2026-02-10 06:03:35</v>
       </c>
       <c r="B50" t="str">
         <v>沙特</v>
       </c>
       <c r="C50" t="str">
-        <v>Jarir</v>
+        <v>Extra</v>
       </c>
       <c r="D50" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-smartwatch-649129.html</v>
+        <v>https://www.extra.com/en-sa/mobiles-tablets/tablets/ipad/apple-ipad-mini-7-gen-wi-fi-8-3-inch-256gb-space-grey/p/100347383</v>
       </c>
       <c r="E50" t="str">
-        <v>REDMI Redmi Watch 5 Black</v>
+        <v>APPLE iPad mini 8+256，WiFi，8.3"</v>
       </c>
       <c r="F50" t="str">
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>399</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2026-02-10 05:33:46</v>
+        <v>2026-02-10 06:03:39</v>
       </c>
       <c r="B51" t="str">
         <v>沙特</v>
       </c>
       <c r="C51" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D51" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-redmi-watch-5-lite-smartwatch-642245.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016102</v>
       </c>
       <c r="E51" t="str">
-        <v>REDMI Redmi Watch 5 Lite Black</v>
+        <v>HUAWEI Huawei FreeClip2 White</v>
       </c>
       <c r="F51" t="str">
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>189</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2026-02-10 05:33:50</v>
+        <v>2026-02-10 06:03:43</v>
       </c>
       <c r="B52" t="str">
         <v>沙特</v>
       </c>
       <c r="C52" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D52" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-watch-fit-3-smartwatch-634727.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012801</v>
       </c>
       <c r="E52" t="str">
-        <v>SAMSUNG Galaxy Fit 3 Black</v>
+        <v>HUAWEI Huawei FreeBuds 6 Black</v>
       </c>
       <c r="F52" t="str">
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>579</v>
+        <v>469</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2026-02-10 05:33:56</v>
+        <v>2026-02-10 06:03:46</v>
       </c>
       <c r="B53" t="str">
         <v>沙特</v>
       </c>
       <c r="C53" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D53" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-fit-3-smartwatch-631631.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012802</v>
       </c>
       <c r="E53" t="str">
-        <v>SAMSUNG Galaxy Fit 3 Gray</v>
+        <v>HUAWEI Huawei FreeBuds 6 Purple</v>
       </c>
       <c r="F53" t="str">
         <v/>
       </c>
       <c r="G53" t="str">
-        <v>149</v>
+        <v>469</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2026-02-10 05:33:59</v>
+        <v>2026-02-10 06:03:51</v>
       </c>
       <c r="B54" t="str">
         <v>沙特</v>
       </c>
       <c r="C54" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D54" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch8-classic-46-smartwatch-662010.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6-buy/?skuCode=89970116010012803</v>
       </c>
       <c r="E54" t="str">
-        <v>SAMSUNG Galaxy Watch8 Classic Black 46mm</v>
+        <v>HUAWEI Huawei FreeBuds 6 White</v>
       </c>
       <c r="F54" t="str">
         <v/>
       </c>
       <c r="G54" t="str">
-        <v>1599</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2026-02-10 05:34:02</v>
+        <v>2026-02-10 06:03:56</v>
       </c>
       <c r="B55" t="str">
         <v>沙特</v>
       </c>
       <c r="C55" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D55" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662006.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012203</v>
       </c>
       <c r="E55" t="str">
-        <v>SAMSUNG Galaxy Watch8 Gray 44mm</v>
+        <v>HUAWEI Huawei FreeArc Black</v>
       </c>
       <c r="F55" t="str">
         <v/>
       </c>
       <c r="G55" t="str">
-        <v>1199</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2026-02-10 05:34:08</v>
+        <v>2026-02-10 06:04:01</v>
       </c>
       <c r="B56" t="str">
         <v>沙特</v>
       </c>
       <c r="C56" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D56" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662000.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012202</v>
       </c>
       <c r="E56" t="str">
-        <v>SAMSUNG Galaxy Watch8 Graphite 40mm</v>
+        <v>HUAWEI Huawei FreeArc White</v>
       </c>
       <c r="F56" t="str">
         <v/>
       </c>
       <c r="G56" t="str">
-        <v>1099</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2026-02-10 05:34:14</v>
+        <v>2026-02-10 06:04:04</v>
       </c>
       <c r="B57" t="str">
         <v>沙特</v>
       </c>
       <c r="C57" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D57" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-44-smartwatch-662008.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freearc-buy/?skuCode=89970116010012201</v>
       </c>
       <c r="E57" t="str">
-        <v>SAMSUNG Galaxy Watch8 White 44mm</v>
+        <v>HUAWEI Huawei FreeArc Green</v>
       </c>
       <c r="F57" t="str">
         <v/>
       </c>
       <c r="G57" t="str">
-        <v>1199</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2026-02-10 05:34:17</v>
+        <v>2026-02-10 06:04:08</v>
       </c>
       <c r="B58" t="str">
         <v>沙特</v>
       </c>
       <c r="C58" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D58" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-watch-8-40-smartwatch-662002.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015506</v>
       </c>
       <c r="E58" t="str">
-        <v>SAMSUNG Galaxy Watch8 White 40mm</v>
+        <v>HUAWEI Huawei FreeBuds 7i Pink</v>
       </c>
       <c r="F58" t="str">
         <v/>
       </c>
       <c r="G58" t="str">
-        <v>1099</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2026-02-10 05:34:21</v>
+        <v>2026-02-10 06:04:10</v>
       </c>
       <c r="B59" t="str">
         <v>沙特</v>
       </c>
       <c r="C59" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D59" t="str">
-        <v>https://www.jarir.com/sa-en/honor-pad-x9a-tablet-pc-655531.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015505</v>
       </c>
       <c r="E59" t="str">
-        <v>HONOR Honor Pad X9A 8+128 皮套，WiFi，11.5"</v>
+        <v>HUAWEI Huawei FreeBuds 7i Black</v>
       </c>
       <c r="F59" t="str">
         <v/>
       </c>
       <c r="G59" t="str">
-        <v>799</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2026-02-10 05:34:26</v>
+        <v>2026-02-10 06:04:14</v>
       </c>
       <c r="B60" t="str">
         <v>沙特</v>
       </c>
       <c r="C60" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D60" t="str">
-        <v>https://www.jarir.com/sa-en/honor-tablet-pc-640649.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/FreeBuds-7i/?skuCode=89970116010015504</v>
       </c>
       <c r="E60" t="str">
-        <v>HONOR Honor Pad X8A 4+128 皮套，WiFi，11"</v>
+        <v>HUAWEI Huawei FreeBuds 7i White</v>
       </c>
       <c r="F60" t="str">
         <v/>
       </c>
       <c r="G60" t="str">
-        <v>549</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2026-02-10 05:34:31</v>
+        <v>2026-02-10 06:04:17</v>
       </c>
       <c r="B61" t="str">
         <v>沙特</v>
       </c>
       <c r="C61" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D61" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670881.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010202</v>
       </c>
       <c r="E61" t="str">
-        <v>SAMSUNG Galaxy Tab A11+ 6+128</v>
+        <v>HUAWEI Huawei FreeBuds 6i White</v>
       </c>
       <c r="F61" t="str">
         <v/>
       </c>
       <c r="G61" t="str">
-        <v>899</v>
+        <v>199</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2026-02-10 05:34:35</v>
+        <v>2026-02-10 06:04:19</v>
       </c>
       <c r="B62" t="str">
         <v>沙特</v>
       </c>
       <c r="C62" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D62" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-a11-tablet-pc-670891.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010201</v>
       </c>
       <c r="E62" t="str">
-        <v>SAMSUNG Galaxy Tab A11+ 8+256</v>
+        <v>HUAWEI Huawei FreeBuds 6i Black</v>
       </c>
       <c r="F62" t="str">
         <v/>
       </c>
       <c r="G62" t="str">
-        <v>1099</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2026-02-10 05:34:37</v>
+        <v>2026-02-10 06:04:22</v>
       </c>
       <c r="B63" t="str">
         <v>沙特</v>
       </c>
       <c r="C63" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D63" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-a9-tablet-pc-661473.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds6i-buy/?skuCode=89970116010010203</v>
       </c>
       <c r="E63" t="str">
-        <v>SAMSUNG Galaxy Tab A9+ 8+128，WiFi，11”</v>
+        <v>HUAWEI Huawei FreeBuds 6i Purple</v>
       </c>
       <c r="F63" t="str">
         <v/>
       </c>
       <c r="G63" t="str">
-        <v>699</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2026-02-10 05:34:41</v>
+        <v>2026-02-10 06:04:29</v>
       </c>
       <c r="B64" t="str">
         <v>沙特</v>
       </c>
       <c r="C64" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D64" t="str">
-        <v>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654179.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015301</v>
       </c>
       <c r="E64" t="str">
-        <v>APPLE  iPad A16 6+128，WiFi，11"</v>
+        <v>HUAWEI Huawei FreeBuds SE 4 White</v>
       </c>
       <c r="F64" t="str">
         <v/>
       </c>
       <c r="G64" t="str">
-        <v>1599</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2026-02-10 05:34:44</v>
+        <v>2026-02-10 06:04:34</v>
       </c>
       <c r="B65" t="str">
         <v>沙特</v>
       </c>
       <c r="C65" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D65" t="str">
-        <v>https://www.jarir.com/sa-en/apple-ipad-a16-tablet-pc-654188.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-4-anc/?skuCode=89970116010015302</v>
       </c>
       <c r="E65" t="str">
-        <v>APPLE  iPad A16 8+256，WiFi，11"</v>
+        <v>HUAWEI Huawei FreeBuds SE 4 Black</v>
       </c>
       <c r="F65" t="str">
         <v/>
       </c>
       <c r="G65" t="str">
-        <v>2049</v>
+        <v>159</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2026-02-10 05:34:46</v>
+        <v>2026-02-10 06:04:38</v>
       </c>
       <c r="B66" t="str">
         <v>沙特</v>
       </c>
       <c r="C66" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D66" t="str">
-        <v>https://www.jarir.com/sa-en/xiaomi-xiaomi-pad-7-tablet-pc-653920.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010901</v>
       </c>
       <c r="E66" t="str">
-        <v>XIAOMI Xiaomi Pad 7 8+256 带皮套，WiFi，11.16"</v>
+        <v>HUAWEI Huawei FreeBuds SE 3 Beige</v>
       </c>
       <c r="F66" t="str">
         <v/>
       </c>
       <c r="G66" t="str">
-        <v>1499</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2026-02-10 05:34:50</v>
+        <v>2026-02-10 06:04:42</v>
       </c>
       <c r="B67" t="str">
         <v>沙特</v>
       </c>
       <c r="C67" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D67" t="str">
-        <v>https://www.jarir.com/sa-en/honor-tablet-pc-641860.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freebuds-se-3-buy/?skuCode=89970116010010902</v>
       </c>
       <c r="E67" t="str">
-        <v>HONOR Magic Pad2 12+256，WiFi，12.3"</v>
+        <v>HUAWEI Huawei FreeBuds SE 3 Black</v>
       </c>
       <c r="F67" t="str">
         <v/>
       </c>
       <c r="G67" t="str">
-        <v>1999</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2026-02-10 05:34:56</v>
+        <v>2026-02-10 06:04:46</v>
       </c>
       <c r="B68" t="str">
         <v>沙特</v>
       </c>
       <c r="C68" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D68" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656238.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006901</v>
       </c>
       <c r="E68" t="str">
-        <v>SAMSUNG Galaxy Tab S10 FE+ 8+128 带笔，WiFi，10.9"</v>
+        <v>HUAWEI Huawei FreeBuds SE 2 White</v>
       </c>
       <c r="F68" t="str">
         <v/>
       </c>
       <c r="G68" t="str">
-        <v>1999</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2026-02-10 05:34:59</v>
+        <v>2026-02-10 06:04:49</v>
       </c>
       <c r="B69" t="str">
         <v>沙特</v>
       </c>
       <c r="C69" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D69" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656240.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006902</v>
       </c>
       <c r="E69" t="str">
-        <v>SAMSUNG Galaxy Tab S10 FE+ 8+256 带笔，WiFi，10.9"</v>
+        <v>HUAWEI Huawei FreeBuds SE 2 Blue</v>
       </c>
       <c r="F69" t="str">
         <v/>
       </c>
       <c r="G69" t="str">
-        <v>2399</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2026-02-10 05:35:05</v>
+        <v>2026-02-10 06:04:54</v>
       </c>
       <c r="B70" t="str">
         <v>沙特</v>
       </c>
       <c r="C70" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D70" t="str">
-        <v>https://www.jarir.com/sa-en/honor-pad-10-papermatte-tablet-pc-663880.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006903</v>
       </c>
       <c r="E70" t="str">
-        <v>HONOR Honor Pad 10 8+256 带笔键，柔光，WiFi，12.1"</v>
+        <v>HUAWEI Huawei FreeBuds SE 2 Black</v>
       </c>
       <c r="F70" t="str">
         <v/>
       </c>
       <c r="G70" t="str">
-        <v>1299</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2026-02-10 05:35:09</v>
+        <v>2026-02-10 06:04:57</v>
       </c>
       <c r="B71" t="str">
         <v>沙特</v>
       </c>
       <c r="C71" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D71" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656224.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freebuds-se-2/buy/?skuCode=89970116010006904</v>
       </c>
       <c r="E71" t="str">
-        <v>SAMSUNG Galaxy Tab S10 FE 12+256 带笔，WiFi，10.9"</v>
+        <v>HUAWEI Huawei FreeBuds SE 2 Purple</v>
       </c>
       <c r="F71" t="str">
         <v/>
       </c>
       <c r="G71" t="str">
-        <v>1799</v>
+        <v>189</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2026-02-10 05:35:12</v>
+        <v>2026-02-10 06:05:02</v>
       </c>
       <c r="B72" t="str">
         <v>沙特</v>
       </c>
       <c r="C72" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D72" t="str">
-        <v>https://www.jarir.com/sa-en/samsung-galaxy-tab-s10-fe-tablet-pc-656188.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008001</v>
       </c>
       <c r="E72" t="str">
-        <v>SAMSUNG Galaxy Tab S10 FE 8+128 带笔，WiFi，10.9"</v>
+        <v>HUAWEI Huawei FreeClip Purple</v>
       </c>
       <c r="F72" t="str">
         <v/>
       </c>
       <c r="G72" t="str">
-        <v>1499</v>
+        <v>549</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2026-02-10 05:35:15</v>
+        <v>2026-02-10 06:05:06</v>
       </c>
       <c r="B73" t="str">
         <v>沙特</v>
       </c>
       <c r="C73" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D73" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-laptops-638524.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008002</v>
       </c>
       <c r="E73" t="str">
-        <v>HUAWEI MateBook 14 U7-155H，16GB，1TB，Win11，2880×1920</v>
+        <v>HUAWEI Huawei FreeClip Black</v>
       </c>
       <c r="F73" t="str">
         <v/>
       </c>
       <c r="G73" t="str">
-        <v>4499</v>
+        <v>549</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2026-02-10 05:35:19</v>
+        <v>2026-02-10 06:05:09</v>
       </c>
       <c r="B74" t="str">
         <v>沙特</v>
       </c>
       <c r="C74" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D74" t="str">
-        <v>https://www.jarir.com/sa-en/asus-laptops-642879.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008003</v>
       </c>
       <c r="E74" t="str">
-        <v>ASUS ZenBook 14 R7 8840HS，16GB，1TB，Win11，2880 x 1800‌</v>
+        <v>HUAWEI Huawei FreeClip Beige</v>
       </c>
       <c r="F74" t="str">
         <v/>
       </c>
       <c r="G74" t="str">
-        <v>3899</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2026-02-10 05:35:22</v>
+        <v>2026-02-10 06:05:14</v>
       </c>
       <c r="B75" t="str">
         <v>沙特</v>
       </c>
       <c r="C75" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D75" t="str">
-        <v>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654298.html</v>
+        <v>https://consumer.huawei.com/sa-en/headphones/freeclip/buy/?skuCode=89970116010008004</v>
       </c>
       <c r="E75" t="str">
-        <v>APPLE MacBook Air 15 M4，16GB，512GB，macOS，2880×1864</v>
+        <v>HUAWEI Huawei FreeClip Rose Gold</v>
       </c>
       <c r="F75" t="str">
         <v/>
       </c>
       <c r="G75" t="str">
-        <v>6449</v>
+        <v>549</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2026-02-10 05:35:27</v>
+        <v>2026-02-10 06:05:19</v>
       </c>
       <c r="B76" t="str">
         <v>沙特</v>
       </c>
       <c r="C76" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D76" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magicbook-art-laptops-665780.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016101</v>
       </c>
       <c r="E76" t="str">
-        <v>HONOR MagicBook Art 14 U7-255H，32GB，1TB，Win11，3120×2080</v>
+        <v>HUAWEI Huawei FreeClip2 Blue</v>
       </c>
       <c r="F76" t="str">
         <v/>
       </c>
       <c r="G76" t="str">
-        <v>5999</v>
+        <v>699</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2026-02-10 05:35:30</v>
+        <v>2026-02-10 06:05:23</v>
       </c>
       <c r="B77" t="str">
         <v>沙特</v>
       </c>
       <c r="C77" t="str">
-        <v>Jarir</v>
+        <v>Vmall</v>
       </c>
       <c r="D77" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-laptops-631440.html</v>
+        <v>https://consumer.huawei.com/sa-en/offer/huawei-audio/freeclip2-buy/?skuCode=89970116010016103</v>
       </c>
       <c r="E77" t="str">
-        <v>HUAWEI MateBook 14 i5-13420H，16GB，512GB，Win11，1920×1200</v>
+        <v>HUAWEI Huawei FreeClip2 Black</v>
       </c>
       <c r="F77" t="str">
         <v/>
       </c>
       <c r="G77" t="str">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>2026-02-10 05:35:33</v>
-      </c>
-      <c r="B78" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C78" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D78" t="str">
-        <v>https://www.jarir.com/sa-en/apple-macbook-air-laptops-654289.html</v>
-      </c>
-      <c r="E78" t="str">
-        <v>APPLE MacBook Air 13  M4，16GB，512GB，macOS，2560×1664</v>
-      </c>
-      <c r="F78" t="str">
-        <v/>
-      </c>
-      <c r="G78" t="str">
-        <v>5449</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>2026-02-10 05:35:37</v>
-      </c>
-      <c r="B79" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C79" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D79" t="str">
-        <v>https://www.jarir.com/sa-en/lenovo-ideapad-pro-5-laptops-631066.html</v>
-      </c>
-      <c r="E79" t="str">
-        <v>LENOVO IdeaPad Pro 5 U7-155H，16GB，512GB，Win11，2048 X 1280</v>
-      </c>
-      <c r="F79" t="str">
-        <v/>
-      </c>
-      <c r="G79" t="str">
-        <v>5699</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>2026-02-10 05:35:40</v>
-      </c>
-      <c r="B80" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C80" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D80" t="str">
-        <v>https://www.jarir.com/sa-en/hp-pavilion-laptops-641161.html</v>
-      </c>
-      <c r="E80" t="str">
-        <v>HP HP Pavilion 16 U7-155U，16GB 1TB，Win11，1920x1200</v>
-      </c>
-      <c r="F80" t="str">
-        <v/>
-      </c>
-      <c r="G80" t="str">
-        <v>4499</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>2026-02-10 05:35:45</v>
-      </c>
-      <c r="B81" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C81" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D81" t="str">
-        <v>https://www.jarir.com/sa-en/asus-asus-vivobook-s16-laptops-666555.html</v>
-      </c>
-      <c r="E81" t="str">
-        <v>ASUS Vivobook S16 i7-13620H，16GB，1TB，Win11，1920×1200</v>
-      </c>
-      <c r="F81" t="str">
-        <v/>
-      </c>
-      <c r="G81" t="str">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>2026-02-10 05:35:49</v>
-      </c>
-      <c r="B82" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C82" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D82" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magicbook-pro-laptops-657780.html</v>
-      </c>
-      <c r="E82" t="str">
-        <v>HONOR MagicBook Pro 14 U5-225H，32GB，1TB，Win11，3120×2080</v>
-      </c>
-      <c r="F82" t="str">
-        <v/>
-      </c>
-      <c r="G82" t="str">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>2026-02-10 05:35:56</v>
-      </c>
-      <c r="B83" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C83" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D83" t="str">
-        <v>https://www.jarir.com/sa-en/honor-magicbook-x14-laptops-663706.html</v>
-      </c>
-      <c r="E83" t="str">
-        <v>HONOR MagicBook X 14 i5-13420H，16GB，512GB，Win11，1920×1200</v>
-      </c>
-      <c r="F83" t="str">
-        <v/>
-      </c>
-      <c r="G83" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>2026-02-10 05:35:58</v>
-      </c>
-      <c r="B84" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C84" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D84" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-laptops-631589.html</v>
-      </c>
-      <c r="E84" t="str">
-        <v>HUAWEI MateBook D 14 i5-12450H，16GB，512GB，Win11，1920×1080</v>
-      </c>
-      <c r="F84" t="str">
-        <v/>
-      </c>
-      <c r="G84" t="str">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>2026-02-10 05:36:03</v>
-      </c>
-      <c r="B85" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C85" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D85" t="str">
-        <v>https://www.jarir.com/sa-en/lenovo-laptops-657126.html</v>
-      </c>
-      <c r="E85" t="str">
-        <v>LENOVO IdeaPad Slim 5 14 i7-13620H，24GB，1TB，Win11，1920×1200</v>
-      </c>
-      <c r="F85" t="str">
-        <v/>
-      </c>
-      <c r="G85" t="str">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>2026-02-10 05:36:06</v>
-      </c>
-      <c r="B86" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C86" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D86" t="str">
-        <v>https://www.jarir.com/sa-en/hp-pavilion-plus-laptops-634893.html</v>
-      </c>
-      <c r="E86" t="str">
-        <v>HP HP Pavilion Plus 14 U5-125H，16GB，512GB，Win11，2880×1800</v>
-      </c>
-      <c r="F86" t="str">
-        <v/>
-      </c>
-      <c r="G86" t="str">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>2026-02-10 05:36:11</v>
-      </c>
-      <c r="B87" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C87" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D87" t="str">
-        <v>https://www.jarir.com/sa-en/lenovo-ideapad-slim-5-laptops-646812.html</v>
-      </c>
-      <c r="E87" t="str">
-        <v>LENOVO IdeaPad Slim 5 14 Snapdragon X Plus，16GB，1TB，Win11，1920×1200‌</v>
-      </c>
-      <c r="F87" t="str">
-        <v/>
-      </c>
-      <c r="G87" t="str">
-        <v>4199</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>2026-02-10 05:36:15</v>
-      </c>
-      <c r="B88" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C88" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D88" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-laptops-632176.html</v>
-      </c>
-      <c r="E88" t="str">
-        <v>HUAWEI MateBook D 16 i5-12450H，16GB 512GB，Win11，1920×1200</v>
-      </c>
-      <c r="F88" t="str">
-        <v/>
-      </c>
-      <c r="G88" t="str">
-        <v>2849</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>2026-02-10 05:36:18</v>
-      </c>
-      <c r="B89" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C89" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D89" t="str">
-        <v>https://www.jarir.com/sa-en/huawei-matebook-d-laptops-674467.html</v>
-      </c>
-      <c r="E89" t="str">
-        <v>HUAWEI MateBook D 16 i5-13420H，16GB 512GB，Win11，1920×1200</v>
-      </c>
-      <c r="F89" t="str">
-        <v/>
-      </c>
-      <c r="G89" t="str">
-        <v>2499</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>2026-02-10 05:36:22</v>
-      </c>
-      <c r="B90" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C90" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D90" t="str">
-        <v>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-653502.html</v>
-      </c>
-      <c r="E90" t="str">
-        <v>LENOVO IdeaPad Slim 3 15.3 i7-13620H，16GB，1TB，Win11，1920×1200</v>
-      </c>
-      <c r="F90" t="str">
-        <v/>
-      </c>
-      <c r="G90" t="str">
-        <v>3299</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>2026-02-10 05:36:26</v>
-      </c>
-      <c r="B91" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C91" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D91" t="str">
-        <v>https://www.jarir.com/sa-en/lenovo-ideapad-slim-3-laptops-623278.html</v>
-      </c>
-      <c r="E91" t="str">
-        <v>LENOVO IdeaPad Slim 3 15.3 i5-13420H，16GB，1TB，Win11，1920 X 1080</v>
-      </c>
-      <c r="F91" t="str">
-        <v/>
-      </c>
-      <c r="G91" t="str">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>2026-02-10 05:36:28</v>
-      </c>
-      <c r="B92" t="str">
-        <v>沙特</v>
-      </c>
-      <c r="C92" t="str">
-        <v>Jarir</v>
-      </c>
-      <c r="D92" t="str">
-        <v>https://www.jarir.com/sa-en/hp-laptops-654667.html</v>
-      </c>
-      <c r="E92" t="str">
-        <v>HP HP 15 15.6 i7-1355U，16GB，512GB，Win11，1920×1080</v>
-      </c>
-      <c r="F92" t="str">
-        <v/>
-      </c>
-      <c r="G92" t="str">
-        <v>3799</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G92"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G77"/>
   </ignoredErrors>
 </worksheet>
 </file>